--- a/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7350</v>
+        <v>7085</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007301902357515359</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002216532041529512</v>
+        <v>0.002201386274549462</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01969533865113793</v>
+        <v>0.01898521917050263</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4143</v>
+        <v>3387</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15286</v>
+        <v>16472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01424703014524034</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007049069697436025</v>
+        <v>0.005761993118598389</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02600838117122505</v>
+        <v>0.02802497709530281</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>11099</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5765</v>
+        <v>5883</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19353</v>
+        <v>19726</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01154982806504123</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005999439706972349</v>
+        <v>0.006121856854650265</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02013954796230669</v>
+        <v>0.02052826552865265</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4716</v>
+        <v>4697</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16882</v>
+        <v>17086</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02548468190967733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01263717863039903</v>
+        <v>0.01258681185897194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04523788089527562</v>
+        <v>0.04578341620985574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -836,19 +836,19 @@
         <v>20076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12447</v>
+        <v>12226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30101</v>
+        <v>31242</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03415715202726477</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02117688652695399</v>
+        <v>0.020802000937504</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05121364280612086</v>
+        <v>0.05315489630281368</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -857,19 +857,19 @@
         <v>29586</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20604</v>
+        <v>19535</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42258</v>
+        <v>42566</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03078912120672839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02144202745829881</v>
+        <v>0.02032901842494753</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0439760232435261</v>
+        <v>0.04429672344694324</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4835</v>
+        <v>4369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002326072094565507</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01295514456430127</v>
+        <v>0.011706487590028</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,19 +907,19 @@
         <v>5437</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1991</v>
+        <v>2088</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11956</v>
+        <v>11796</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009249841405955408</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003387081792336846</v>
+        <v>0.003552804820645382</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02034139965413509</v>
+        <v>0.02006996162508555</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -928,19 +928,19 @@
         <v>6305</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2202</v>
+        <v>2266</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12727</v>
+        <v>13875</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00656093407979995</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002291150046615531</v>
+        <v>0.002358429580849907</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01324464459900703</v>
+        <v>0.0144388176692711</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>360085</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>352275</v>
+        <v>351786</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>365861</v>
+        <v>365751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9648873436382418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9439583820621185</v>
+        <v>0.9426495779923059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9803650073106839</v>
+        <v>0.9800700607632026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>542</v>
@@ -978,19 +978,19 @@
         <v>553863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>542180</v>
+        <v>541271</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>565312</v>
+        <v>564369</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9423459764215395</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9224690993137296</v>
+        <v>0.9209227380820522</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9618258543346666</v>
+        <v>0.9602211594867296</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>927</v>
@@ -999,19 +999,19 @@
         <v>913948</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>899469</v>
+        <v>897769</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>926478</v>
+        <v>925552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9511001166484304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9360323735290819</v>
+        <v>0.9342628208361019</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9641396586567882</v>
+        <v>0.9631754495425411</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="10">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5129</v>
+        <v>5266</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01468850300910648</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08245165313002552</v>
+        <v>0.08464741055397669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5358</v>
+        <v>7187</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01146618619716429</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03564964027366026</v>
+        <v>0.04782066951147524</v>
       </c>
     </row>
     <row r="11">
@@ -1284,7 +1284,7 @@
         <v>87273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>88083</v>
@@ -1293,7 +1293,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>60157</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54904</v>
+        <v>55259</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>62212</v>
@@ -1314,7 +1314,7 @@
         <v>0.9669695893092035</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8825289566587607</v>
+        <v>0.8882441752748973</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1326,19 +1326,19 @@
         <v>147431</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>142748</v>
+        <v>141236</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149493</v>
+        <v>149481</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9809415035702086</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9497837989506803</v>
+        <v>0.9397249013097377</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9946634938750384</v>
+        <v>0.9945812679072665</v>
       </c>
     </row>
     <row r="13">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6222</v>
+        <v>5186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04738674078105654</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2314701426101697</v>
+        <v>0.1929366463749501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6305</v>
+        <v>6795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01871158352050372</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09261290242380128</v>
+        <v>0.09981196896300491</v>
       </c>
     </row>
     <row r="17">
@@ -1600,7 +1600,7 @@
         <v>25607</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20659</v>
+        <v>21695</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>26881</v>
@@ -1609,7 +1609,7 @@
         <v>0.9526132592189435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7685298573898304</v>
+        <v>0.8070633536250499</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>66801</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>61770</v>
+        <v>61280</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>68075</v>
@@ -1630,7 +1630,7 @@
         <v>0.9812884164794963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9073870975761996</v>
+        <v>0.9001880310369959</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1725,19 +1725,19 @@
         <v>2725</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8305</v>
+        <v>7807</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005423231450403397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001651773648251731</v>
+        <v>0.001653911351372261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01652845331260172</v>
+        <v>0.01553805609177201</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1746,19 +1746,19 @@
         <v>9515</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4425</v>
+        <v>4224</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17438</v>
+        <v>16618</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01405759086535388</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006538435118944621</v>
+        <v>0.006241288444503116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02576449668488715</v>
+        <v>0.02455176402357711</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -1767,19 +1767,19 @@
         <v>12240</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6288</v>
+        <v>6664</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20357</v>
+        <v>21256</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01037876220271654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005331819862923793</v>
+        <v>0.005650489406097543</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01726190794735137</v>
+        <v>0.01802383740244934</v>
       </c>
     </row>
     <row r="20">
@@ -1796,19 +1796,19 @@
         <v>10320</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5411</v>
+        <v>5588</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18233</v>
+        <v>17689</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02053892224611863</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01076830536089562</v>
+        <v>0.01112206764877104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0362878151618421</v>
+        <v>0.03520346977328175</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1817,19 +1817,19 @@
         <v>20990</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13127</v>
+        <v>13389</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32618</v>
+        <v>32500</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03101114599009216</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01939510101666653</v>
+        <v>0.01978140652046007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0481912750018444</v>
+        <v>0.04801679622474531</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -1838,19 +1838,19 @@
         <v>31310</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21348</v>
+        <v>21365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43485</v>
+        <v>43343</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02654926120867181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01810250745891718</v>
+        <v>0.01811673116701698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03687360627190934</v>
+        <v>0.03675316146789372</v>
       </c>
     </row>
     <row r="21">
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5091</v>
+        <v>5206</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.001727608330200385</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01013154155697348</v>
+        <v>0.01036105827684657</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1888,19 +1888,19 @@
         <v>6710</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2307</v>
+        <v>2275</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13384</v>
+        <v>13626</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009914246668302398</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003407992724502157</v>
+        <v>0.003361791174098084</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01977441123014037</v>
+        <v>0.02013212813409061</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1909,19 +1909,19 @@
         <v>7578</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3206</v>
+        <v>3336</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15796</v>
+        <v>15425</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006426177858390792</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002718623066318874</v>
+        <v>0.002828585889706329</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01339416748707025</v>
+        <v>0.01308004344502954</v>
       </c>
     </row>
     <row r="22">
@@ -1938,19 +1938,19 @@
         <v>488553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>480395</v>
+        <v>480006</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>494811</v>
+        <v>494104</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9723102379732775</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9560741785741805</v>
+        <v>0.9553000622351373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9847643567990241</v>
+        <v>0.9833579623796945</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>626</v>
@@ -1959,19 +1959,19 @@
         <v>639627</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>625608</v>
+        <v>626168</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>650796</v>
+        <v>649874</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9450170164762516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9243041228355874</v>
+        <v>0.9251315332595478</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9615186121712269</v>
+        <v>0.9601557178157208</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1134</v>
@@ -1980,19 +1980,19 @@
         <v>1128180</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1113069</v>
+        <v>1113102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1141947</v>
+        <v>1140342</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9566457987302208</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9438320798155715</v>
+        <v>0.9438600219841264</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9683197848506928</v>
+        <v>0.9669585564178931</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>9438</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5148</v>
+        <v>5036</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17985</v>
+        <v>17025</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.022775010886079</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01242337842535297</v>
+        <v>0.01215142318098657</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04339992193634324</v>
+        <v>0.0410845239455646</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2344,19 +2344,19 @@
         <v>23669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15091</v>
+        <v>15180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37534</v>
+        <v>36537</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03730097599805773</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0237825060737789</v>
+        <v>0.02392316263294871</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0591514850673163</v>
+        <v>0.05757933050252311</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2365,19 +2365,19 @@
         <v>33107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22991</v>
+        <v>22689</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47102</v>
+        <v>47006</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0315623125382671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02191843609045098</v>
+        <v>0.02163034474442423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04490470077212972</v>
+        <v>0.04481294552704675</v>
       </c>
     </row>
     <row r="5">
@@ -2394,19 +2394,19 @@
         <v>9655</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4275</v>
+        <v>5127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17120</v>
+        <v>17227</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02329983289345611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01031722311478869</v>
+        <v>0.01237301738846244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04131225189182824</v>
+        <v>0.04157061149010369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -2415,19 +2415,19 @@
         <v>32001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22383</v>
+        <v>22234</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44876</v>
+        <v>44149</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05043215733347644</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03527332083978858</v>
+        <v>0.03503924264872703</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07072186405133826</v>
+        <v>0.06957508831466824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -2436,19 +2436,19 @@
         <v>41657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30172</v>
+        <v>30040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55526</v>
+        <v>55738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03971319459035864</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02876449322204783</v>
+        <v>0.02863849519605751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05293557525894618</v>
+        <v>0.05313709020217762</v>
       </c>
     </row>
     <row r="6">
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13769</v>
+        <v>13544</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008130638230271384</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03322727525961817</v>
+        <v>0.03268374785429717</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -2486,19 +2486,19 @@
         <v>3334</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9039</v>
+        <v>8808</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005254791380105582</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001689246212329055</v>
+        <v>0.001693663009735721</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01424530848320462</v>
+        <v>0.01388020184691234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -2507,19 +2507,19 @@
         <v>6704</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15763</v>
+        <v>15591</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006390930501174444</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002122347344052517</v>
+        <v>0.002120236039535586</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01502725328346102</v>
+        <v>0.01486326558784204</v>
       </c>
     </row>
     <row r="7">
@@ -2536,19 +2536,19 @@
         <v>391935</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>380927</v>
+        <v>381117</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>400376</v>
+        <v>400420</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9457945179901935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9192297908260255</v>
+        <v>0.9196889034934181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9661630175034644</v>
+        <v>0.9662680056765721</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>542</v>
@@ -2557,19 +2557,19 @@
         <v>575540</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>559919</v>
+        <v>558497</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>590060</v>
+        <v>589215</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9070120752883603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8823943279926385</v>
+        <v>0.8801540446883974</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9298940383086154</v>
+        <v>0.9285626571470891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>900</v>
@@ -2578,19 +2578,19 @@
         <v>967474</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>947552</v>
+        <v>948231</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>983299</v>
+        <v>983925</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9223335623701998</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9033402486648768</v>
+        <v>0.9039881299092791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.937419524210687</v>
+        <v>0.9380162561123012</v>
       </c>
     </row>
     <row r="8">
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7646</v>
+        <v>8545</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01201549637766216</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03790053876338048</v>
+        <v>0.04235891416025143</v>
       </c>
     </row>
     <row r="10">
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6649</v>
+        <v>7384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01768800459207213</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05603005261133923</v>
+        <v>0.06222354884313908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5111</v>
+        <v>6196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01255854528289493</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06152600337205089</v>
+        <v>0.07457889670457615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -2787,19 +2787,19 @@
         <v>3142</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8545</v>
+        <v>9276</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0155757382275314</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00486903505309502</v>
+        <v>0.004853240618442931</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04235429979673812</v>
+        <v>0.04598149239195041</v>
       </c>
     </row>
     <row r="11">
@@ -2863,7 +2863,7 @@
         <v>116566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112016</v>
+        <v>111281</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>118665</v>
@@ -2872,7 +2872,7 @@
         <v>0.9823119954079279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9439699473886606</v>
+        <v>0.9377764511568611</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -2884,19 +2884,19 @@
         <v>79607</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73845</v>
+        <v>73244</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82047</v>
+        <v>82037</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9582628431634506</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8889065899217837</v>
+        <v>0.8816716899345904</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9876335069884086</v>
+        <v>0.9875115584525652</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>177</v>
@@ -2905,19 +2905,19 @@
         <v>196173</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>190016</v>
+        <v>189029</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>199659</v>
+        <v>199611</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9724087653948065</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9418926485866957</v>
+        <v>0.9369972069370676</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9896886561971657</v>
+        <v>0.9894525684617721</v>
       </c>
     </row>
     <row r="13">
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4685</v>
+        <v>4775</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04731906176422252</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2105799785261089</v>
+        <v>0.2146454048085877</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5454</v>
+        <v>5537</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02156178492048418</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1117068532612936</v>
+        <v>0.113423299933288</v>
       </c>
     </row>
     <row r="16">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7188</v>
+        <v>6627</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04271052085968116</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1472318218838271</v>
+        <v>0.1357357228208626</v>
       </c>
     </row>
     <row r="17">
@@ -3190,7 +3190,7 @@
         <v>25589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22156</v>
+        <v>22119</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>26575</v>
@@ -3199,7 +3199,7 @@
         <v>0.9629124886789527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.833714616860921</v>
+        <v>0.8323388717765167</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>20094</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15040</v>
+        <v>15335</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>22246</v>
@@ -3220,7 +3220,7 @@
         <v>0.9032532826900909</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6760581713296862</v>
+        <v>0.6893182286072753</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3232,19 +3232,19 @@
         <v>45683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40194</v>
+        <v>40213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47888</v>
+        <v>47900</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9357276942198347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8232991233471918</v>
+        <v>0.8236757362673288</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9808817123947688</v>
+        <v>0.9811358135543294</v>
       </c>
     </row>
     <row r="18">
@@ -3336,19 +3336,19 @@
         <v>9438</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4164</v>
+        <v>4246</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16958</v>
+        <v>16783</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01686434591151883</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007440668696890777</v>
+        <v>0.007586826872500979</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03030255896771269</v>
+        <v>0.0299885743079904</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -3357,19 +3357,19 @@
         <v>26093</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17385</v>
+        <v>16951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39240</v>
+        <v>37687</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03526741974916473</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02349697167131687</v>
+        <v>0.02291153007557163</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05303698422578824</v>
+        <v>0.05093764019451801</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -3378,19 +3378,19 @@
         <v>35531</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24515</v>
+        <v>25460</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49580</v>
+        <v>49608</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02734204386625731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01886514521559</v>
+        <v>0.01959239462716032</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03815316974540458</v>
+        <v>0.03817448032432905</v>
       </c>
     </row>
     <row r="20">
@@ -3407,19 +3407,19 @@
         <v>11754</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6271</v>
+        <v>6177</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20335</v>
+        <v>20907</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.021003505972266</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.011205574473993</v>
+        <v>0.0110377207871944</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03633655674823139</v>
+        <v>0.03735811367514637</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -3428,19 +3428,19 @@
         <v>34097</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24454</v>
+        <v>23799</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47304</v>
+        <v>46194</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04608598356400509</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03305247684144728</v>
+        <v>0.03216729010601829</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06393627657159118</v>
+        <v>0.06243536000415795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>43</v>
@@ -3449,19 +3449,19 @@
         <v>45852</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33785</v>
+        <v>34340</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60333</v>
+        <v>61636</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03528408901405834</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02599853174601853</v>
+        <v>0.02642578042336098</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04642757869382953</v>
+        <v>0.04743022844050664</v>
       </c>
     </row>
     <row r="21">
@@ -3478,19 +3478,19 @@
         <v>4355</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12864</v>
+        <v>12403</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00778165683923973</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001767437477742475</v>
+        <v>0.001780695665416695</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02298559051079924</v>
+        <v>0.02216225037875066</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -3499,19 +3499,19 @@
         <v>4434</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11106</v>
+        <v>11136</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005992938987094963</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001494707775198425</v>
+        <v>0.001493229957313988</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01501074400978337</v>
+        <v>0.01505185861225618</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -3520,19 +3520,19 @@
         <v>8789</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3341</v>
+        <v>4207</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17556</v>
+        <v>18607</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006763259285311378</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002571237434836769</v>
+        <v>0.003237143773050904</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01350981840676593</v>
+        <v>0.01431847195932472</v>
       </c>
     </row>
     <row r="22">
@@ -3549,19 +3549,19 @@
         <v>534090</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>521929</v>
+        <v>521963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>542617</v>
+        <v>543602</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9543504912769755</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9326208634615605</v>
+        <v>0.9326813853553052</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.969588069844619</v>
+        <v>0.9713475713270376</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>632</v>
@@ -3570,19 +3570,19 @@
         <v>675240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>658790</v>
+        <v>657871</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>690680</v>
+        <v>689205</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9126536576997352</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8904185895502754</v>
+        <v>0.8891776544434341</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9335210448112959</v>
+        <v>0.9315280666571688</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1113</v>
@@ -3591,19 +3591,19 @@
         <v>1209330</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1188899</v>
+        <v>1190186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1227024</v>
+        <v>1227313</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.930610607834373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9148885107759606</v>
+        <v>0.9158785936349121</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9442263065177029</v>
+        <v>0.9444488345678221</v>
       </c>
     </row>
     <row r="23">
@@ -3934,19 +3934,19 @@
         <v>3525</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8085</v>
+        <v>8745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009959740005734833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002562890618608603</v>
+        <v>0.002580644690632965</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02284671733570157</v>
+        <v>0.0247107891206664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -3955,19 +3955,19 @@
         <v>13205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7310</v>
+        <v>6438</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23870</v>
+        <v>23052</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0238033995777852</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01317707420359191</v>
+        <v>0.01160565938000175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04302777760870622</v>
+        <v>0.04155360895627336</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -3976,19 +3976,19 @@
         <v>16730</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9108</v>
+        <v>9648</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27341</v>
+        <v>27301</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01841161323258007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01002318654835423</v>
+        <v>0.01061818915514815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03008944352177289</v>
+        <v>0.03004524444426561</v>
       </c>
     </row>
     <row r="5">
@@ -4005,19 +4005,19 @@
         <v>14603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9196</v>
+        <v>8544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24014</v>
+        <v>23014</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04126360552734695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02598498679196177</v>
+        <v>0.02414144849763404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06785624017037242</v>
+        <v>0.06503058669875275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -4026,19 +4026,19 @@
         <v>36956</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25580</v>
+        <v>25337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52304</v>
+        <v>51496</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06661724556381597</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04611011132916429</v>
+        <v>0.04567154091604526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0942827540729253</v>
+        <v>0.09282610303699727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -4047,19 +4047,19 @@
         <v>51560</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38189</v>
+        <v>37965</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66527</v>
+        <v>67514</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05674258710097188</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04202819110038802</v>
+        <v>0.04178128327331304</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07321466971571004</v>
+        <v>0.07430075300029657</v>
       </c>
     </row>
     <row r="6">
@@ -4079,16 +4079,16 @@
         <v>764</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7299</v>
+        <v>7141</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007262401930804205</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002159761230822356</v>
+        <v>0.002158655729853306</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02062361082634793</v>
+        <v>0.02017692774214392</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6522</v>
+        <v>5716</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002038599450987849</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01175640648185116</v>
+        <v>0.01030410453187691</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -4118,19 +4118,19 @@
         <v>3701</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1121</v>
+        <v>958</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8591</v>
+        <v>9713</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004073150122660495</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001233377792578826</v>
+        <v>0.001054097395565324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009455087971989611</v>
+        <v>0.01068942021681354</v>
       </c>
     </row>
     <row r="7">
@@ -4147,19 +4147,19 @@
         <v>333203</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>324270</v>
+        <v>324499</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>339838</v>
+        <v>340481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.941514252536114</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9162732197318897</v>
+        <v>0.9169214387333887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9602619895191389</v>
+        <v>0.9620793012008181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>431</v>
@@ -4168,19 +4168,19 @@
         <v>503465</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>485640</v>
+        <v>486229</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>517035</v>
+        <v>517365</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.907540755407411</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8754096417010599</v>
+        <v>0.8764724128616856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9320022401727763</v>
+        <v>0.9325969417663184</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>793</v>
@@ -4189,19 +4189,19 @@
         <v>836667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>819324</v>
+        <v>817429</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>852298</v>
+        <v>851976</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9207726495437876</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9016857340159106</v>
+        <v>0.8995997696363994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9379749220480059</v>
+        <v>0.9376200185413595</v>
       </c>
     </row>
     <row r="8">
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5528</v>
+        <v>6385</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009370532660599817</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02871409039112467</v>
+        <v>0.03316519783893054</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5978</v>
+        <v>6354</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004740144296049346</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01570596606338288</v>
+        <v>0.01669447291601682</v>
       </c>
     </row>
     <row r="10">
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5413</v>
+        <v>5165</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00531606329141379</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02811356169481649</v>
+        <v>0.02682661300505596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -4377,19 +4377,19 @@
         <v>5745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12090</v>
+        <v>12011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0305473168271592</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01070610011722203</v>
+        <v>0.0106381050202101</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06428443985563786</v>
+        <v>0.06386133514429965</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -4398,19 +4398,19 @@
         <v>6769</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2973</v>
+        <v>2413</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14361</v>
+        <v>14414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01778392472752772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007811499435950102</v>
+        <v>0.006339090589354969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03773227860912854</v>
+        <v>0.03787025889019358</v>
       </c>
     </row>
     <row r="11">
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4538</v>
+        <v>3674</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004663014880040691</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0235694353119838</v>
+        <v>0.01908302086890739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5877</v>
+        <v>7325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006312439910086339</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0312489043823566</v>
+        <v>0.03894724207074567</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7028</v>
+        <v>7681</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005478067635732468</v>
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01846550771864298</v>
+        <v>0.02018215366070078</v>
       </c>
     </row>
     <row r="12">
@@ -4498,19 +4498,19 @@
         <v>188807</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>183325</v>
+        <v>183867</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>191617</v>
+        <v>191540</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9806503891679457</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9521811146837946</v>
+        <v>0.9549962384581894</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9952494141538444</v>
+        <v>0.9948461064126293</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>151</v>
@@ -4519,19 +4519,19 @@
         <v>181142</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>174264</v>
+        <v>173708</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>185658</v>
+        <v>185443</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9631402432627545</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9265713705110938</v>
+        <v>0.9236148872158231</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9871545876323352</v>
+        <v>0.9860106736992684</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>344</v>
@@ -4540,19 +4540,19 @@
         <v>369948</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>361414</v>
+        <v>360766</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>375394</v>
+        <v>374608</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9719978633406905</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9495739391818877</v>
+        <v>0.9478719637355699</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.98630709338919</v>
+        <v>0.9842418939048594</v>
       </c>
     </row>
     <row r="13">
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6553</v>
+        <v>7463</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03740797777715391</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1559090507414063</v>
+        <v>0.1775644624743901</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11116</v>
+        <v>9859</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03894166112874054</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1468315714054358</v>
+        <v>0.1302288062459633</v>
       </c>
     </row>
     <row r="16">
@@ -4809,7 +4809,7 @@
         <v>40457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35476</v>
+        <v>34566</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>42029</v>
@@ -4818,7 +4818,7 @@
         <v>0.9625920222228461</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.844090949258594</v>
+        <v>0.82243553752561</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4830,7 +4830,7 @@
         <v>32298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>33674</v>
@@ -4839,7 +4839,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4851,7 +4851,7 @@
         <v>72755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64587</v>
+        <v>65844</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>75703</v>
@@ -4860,7 +4860,7 @@
         <v>0.9610583388712595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8531684285945631</v>
+        <v>0.8697711937540354</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -4958,16 +4958,16 @@
         <v>1821</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11686</v>
+        <v>10663</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009055619989330885</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003094780752095419</v>
+        <v>0.003094545541029955</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01985898169120707</v>
+        <v>0.01811981787297262</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -4976,19 +4976,19 @@
         <v>13205</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6395</v>
+        <v>6216</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24036</v>
+        <v>23604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01700581308078467</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008236176285180998</v>
+        <v>0.008004688981532216</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0309543902800206</v>
+        <v>0.03039827029961636</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4997,19 +4997,19 @@
         <v>18534</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10170</v>
+        <v>11190</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29095</v>
+        <v>30546</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01357833832115478</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00745071543749791</v>
+        <v>0.008198138175537488</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02131549765045189</v>
+        <v>0.02237820959378104</v>
       </c>
     </row>
     <row r="20">
@@ -5026,19 +5026,19 @@
         <v>17199</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10748</v>
+        <v>9917</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26438</v>
+        <v>24787</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0292269814280738</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01826375657598317</v>
+        <v>0.01685232233492648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0449270936989728</v>
+        <v>0.04212211909383717</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -5047,19 +5047,19 @@
         <v>44077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32713</v>
+        <v>31660</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61857</v>
+        <v>61237</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05676372347204178</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04212836399035228</v>
+        <v>0.04077181352019346</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07966045683449191</v>
+        <v>0.07886221928962849</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -5068,19 +5068,19 @@
         <v>61276</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>46389</v>
+        <v>45159</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78303</v>
+        <v>79278</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04489212648912112</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03398506021969602</v>
+        <v>0.0330839953974618</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05736612715240628</v>
+        <v>0.05808056340959693</v>
       </c>
     </row>
     <row r="21">
@@ -5097,19 +5097,19 @@
         <v>3468</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9366</v>
+        <v>8024</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005893244404689538</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001516152127982476</v>
+        <v>0.0015053130806968</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01591537498784605</v>
+        <v>0.01363629918753002</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8189</v>
+        <v>7027</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002985342717125804</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01054627913272899</v>
+        <v>0.009048946262141531</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>6</v>
@@ -5139,19 +5139,19 @@
         <v>5786</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2315</v>
+        <v>2139</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12273</v>
+        <v>12363</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004238992725743057</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001695896532061772</v>
+        <v>0.00156740299904853</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.008991314268963111</v>
+        <v>0.00905714654158131</v>
       </c>
     </row>
     <row r="22">
@@ -5168,19 +5168,19 @@
         <v>562467</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>551162</v>
+        <v>552919</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>570257</v>
+        <v>570833</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9558241541779058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.936613328395393</v>
+        <v>0.93959827142619</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9690622356640937</v>
+        <v>0.9700410244881777</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>607</v>
@@ -5189,19 +5189,19 @@
         <v>716904</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>698977</v>
+        <v>697398</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>731762</v>
+        <v>731603</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9232451207300477</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9001571404514125</v>
+        <v>0.8981242911003087</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9423791044176906</v>
+        <v>0.9421736236927851</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1202</v>
@@ -5210,19 +5210,19 @@
         <v>1279372</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1258463</v>
+        <v>1259202</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1296442</v>
+        <v>1297880</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.937290542463981</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.921972527488691</v>
+        <v>0.9225142319742475</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9497965226658246</v>
+        <v>0.9508504589371615</v>
       </c>
     </row>
     <row r="23">
@@ -5553,19 +5553,19 @@
         <v>4034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1725</v>
+        <v>1611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8406</v>
+        <v>8939</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01390715361160009</v>
+        <v>0.0139071536116001</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005946512660200175</v>
+        <v>0.005554473701666641</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02897697809331774</v>
+        <v>0.03081345250382396</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -5574,19 +5574,19 @@
         <v>14314</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9589</v>
+        <v>8816</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21324</v>
+        <v>20448</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02656646709991047</v>
+        <v>0.02656646709991048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01779708766065639</v>
+        <v>0.01636214093679472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03957895285987535</v>
+        <v>0.03795325484280811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -5595,19 +5595,19 @@
         <v>18348</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12730</v>
+        <v>12799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25524</v>
+        <v>27077</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02213588144175016</v>
+        <v>0.02213588144175015</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01535773110402535</v>
+        <v>0.01544192702754504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0307934829536786</v>
+        <v>0.0326675153350066</v>
       </c>
     </row>
     <row r="5">
@@ -5624,19 +5624,19 @@
         <v>6922</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3617</v>
+        <v>3644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13342</v>
+        <v>12869</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02386068760146079</v>
+        <v>0.0238606876014608</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0124669076832875</v>
+        <v>0.01256026121124379</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04599060557642124</v>
+        <v>0.04436002824319453</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -5645,19 +5645,19 @@
         <v>40252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32470</v>
+        <v>31321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52285</v>
+        <v>50394</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07470903617878805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06026483694197039</v>
+        <v>0.05813283392105842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09704229113025806</v>
+        <v>0.0935337081235702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>81</v>
@@ -5666,19 +5666,19 @@
         <v>47174</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38286</v>
+        <v>37950</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>59233</v>
+        <v>59178</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05691281333022096</v>
+        <v>0.05691281333022095</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0461902592869346</v>
+        <v>0.04578511678530742</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07146147440884647</v>
+        <v>0.07139503254524548</v>
       </c>
     </row>
     <row r="6">
@@ -5698,16 +5698,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5006</v>
+        <v>5269</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.005077086394694946</v>
+        <v>0.005077086394694947</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01725685662802367</v>
+        <v>0.01816140179652442</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -5716,19 +5716,19 @@
         <v>8787</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5031</v>
+        <v>4793</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14611</v>
+        <v>13944</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01630898321760442</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009338343991686074</v>
+        <v>0.008896587180247799</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02711797122998612</v>
+        <v>0.02588033225793848</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -5737,19 +5737,19 @@
         <v>10260</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5745</v>
+        <v>6218</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16578</v>
+        <v>16279</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01237797376567235</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006931190031368148</v>
+        <v>0.007501651698023454</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02000101157535238</v>
+        <v>0.01964001568311395</v>
       </c>
     </row>
     <row r="7">
@@ -5766,19 +5766,19 @@
         <v>277666</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>270955</v>
+        <v>271170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>282259</v>
+        <v>282753</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.957155072392244</v>
+        <v>0.9571550723922442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9340230677170527</v>
+        <v>0.9347611207301779</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9729870138991896</v>
+        <v>0.9746916067872547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>908</v>
@@ -5787,19 +5787,19 @@
         <v>475429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>462343</v>
+        <v>464198</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>485382</v>
+        <v>487142</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.882415513503697</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8581286901147767</v>
+        <v>0.8615713966301134</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9008889285204451</v>
+        <v>0.9041552533689263</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1317</v>
@@ -5808,19 +5808,19 @@
         <v>753095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>739640</v>
+        <v>739116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>764511</v>
+        <v>765389</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9085733314623565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8923414585855433</v>
+        <v>0.8917082674970487</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9223466212479702</v>
+        <v>0.9234059121299086</v>
       </c>
     </row>
     <row r="8">
@@ -5915,16 +5915,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4446</v>
+        <v>4590</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.004138491060817481</v>
+        <v>0.004138491060817482</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0146324739699931</v>
+        <v>0.01510740648941442</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5933,19 +5933,19 @@
         <v>1984</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>632</v>
+        <v>459</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5074</v>
+        <v>4999</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007145555718042142</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.002274523620369174</v>
+        <v>0.001654347052884259</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01827620897804104</v>
+        <v>0.01800559453673568</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -5954,19 +5954,19 @@
         <v>3241</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1321</v>
+        <v>1382</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7347</v>
+        <v>7101</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005574330399149047</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002271254854093653</v>
+        <v>0.002377078342598965</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01263504958210048</v>
+        <v>0.01221216646391388</v>
       </c>
     </row>
     <row r="10">
@@ -5983,19 +5983,19 @@
         <v>5183</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2262</v>
+        <v>2089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10643</v>
+        <v>10209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01705757065316978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007446522518116096</v>
+        <v>0.0068761755278412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03503138500184846</v>
+        <v>0.03360113112102672</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -6004,19 +6004,19 @@
         <v>8491</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5204</v>
+        <v>4906</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13922</v>
+        <v>13508</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03058031176475558</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01874450571045118</v>
+        <v>0.0176695185448561</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05014194958441981</v>
+        <v>0.04865138525999185</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -6025,19 +6025,19 @@
         <v>13673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9025</v>
+        <v>8645</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20785</v>
+        <v>20897</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02351452647666334</v>
+        <v>0.02351452647666333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01552176871094958</v>
+        <v>0.01486756094941964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03574527799039844</v>
+        <v>0.03593840589935959</v>
       </c>
     </row>
     <row r="11">
@@ -6057,16 +6057,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5082</v>
+        <v>4680</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.004432901253585282</v>
+        <v>0.004432901253585283</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01672650891934101</v>
+        <v>0.01540213440922663</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -6078,16 +6078,16 @@
         <v>606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5119</v>
+        <v>5161</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.006862810246654094</v>
+        <v>0.006862810246654093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002183753514854043</v>
+        <v>0.00218409029918481</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01843730141674771</v>
+        <v>0.01858799939400205</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -6096,19 +6096,19 @@
         <v>3252</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1204</v>
+        <v>1259</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7101</v>
+        <v>7516</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.005593155294824936</v>
+        <v>0.005593155294824935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002070317171865072</v>
+        <v>0.002165984356826815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01221240682787226</v>
+        <v>0.01292544088758919</v>
       </c>
     </row>
     <row r="12">
@@ -6125,19 +6125,19 @@
         <v>296038</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>289426</v>
+        <v>290464</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>299612</v>
+        <v>300307</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9743710370324272</v>
+        <v>0.9743710370324274</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9526087914199665</v>
+        <v>0.9560251192502538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9861322154088249</v>
+        <v>0.9884197643843513</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>505</v>
@@ -6146,19 +6146,19 @@
         <v>265266</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>258793</v>
+        <v>259268</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>269277</v>
+        <v>269673</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9554113222705481</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9320985849665958</v>
+        <v>0.9338071890144387</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9698555019080105</v>
+        <v>0.9712820493612934</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>920</v>
@@ -6167,19 +6167,19 @@
         <v>561304</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>552786</v>
+        <v>553554</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>567381</v>
+        <v>568024</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9653179878293626</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9506687981717413</v>
+        <v>0.9519891366688361</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9757688016125041</v>
+        <v>0.9768746754672002</v>
       </c>
     </row>
     <row r="13">
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2031</v>
+        <v>2357</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.004787678722360755</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02451336262367718</v>
+        <v>0.02844874237768034</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>2397</v>
+        <v>2003</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.001966351462578713</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01188006277077193</v>
+        <v>0.009930372508616463</v>
       </c>
     </row>
     <row r="16">
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3535</v>
+        <v>3116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005541037417532714</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02973182611215899</v>
+        <v>0.02620735193796807</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3330</v>
+        <v>3296</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003265273386149191</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01650808510660043</v>
+        <v>0.01633856499487876</v>
       </c>
     </row>
     <row r="17">
@@ -6444,7 +6444,7 @@
         <v>118222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115346</v>
+        <v>115765</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>118881</v>
@@ -6453,7 +6453,7 @@
         <v>0.9944589625824672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9702681738878403</v>
+        <v>0.9737926480620315</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6465,16 +6465,16 @@
         <v>82458</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>80824</v>
+        <v>80498</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>82855</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.995212321277639</v>
+        <v>0.9952123212776393</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9754866373763242</v>
+        <v>0.9715512576223212</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -6486,7 +6486,7 @@
         <v>200681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>197628</v>
+        <v>198410</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>201736</v>
@@ -6495,7 +6495,7 @@
         <v>0.9947683751512723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9796362470971063</v>
+        <v>0.9835129215304395</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -6590,19 +6590,19 @@
         <v>5292</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2411</v>
+        <v>2515</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10193</v>
+        <v>10296</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.007423915035559588</v>
+        <v>0.007423915035559586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003382667758804466</v>
+        <v>0.003527934905961848</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01429983052673402</v>
+        <v>0.01444491841407467</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -6611,19 +6611,19 @@
         <v>16297</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10814</v>
+        <v>11236</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22856</v>
+        <v>23047</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01812272333688289</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01202466652172024</v>
+        <v>0.01249414120713028</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02541576246006303</v>
+        <v>0.02562811033075355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -6632,19 +6632,19 @@
         <v>21589</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15419</v>
+        <v>15478</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29662</v>
+        <v>30097</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0133921208287964</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009564374550568017</v>
+        <v>0.009601186005266171</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01839996704385497</v>
+        <v>0.01866956215826812</v>
       </c>
     </row>
     <row r="20">
@@ -6661,19 +6661,19 @@
         <v>12104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6982</v>
+        <v>6532</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19809</v>
+        <v>18578</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0169814372560542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009795729162082991</v>
+        <v>0.009163158309498374</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0277897707699418</v>
+        <v>0.02606348107801307</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -6682,19 +6682,19 @@
         <v>49139</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39657</v>
+        <v>40224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60733</v>
+        <v>61733</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.05464246238374543</v>
+        <v>0.05464246238374544</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04409889026367034</v>
+        <v>0.04472936570764758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06753531076698525</v>
+        <v>0.06864695522422978</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -6703,19 +6703,19 @@
         <v>61243</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49432</v>
+        <v>49471</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>75786</v>
+        <v>73623</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.03799020215919983</v>
+        <v>0.03799020215919984</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03066353360402272</v>
+        <v>0.03068741774021194</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04701116122254743</v>
+        <v>0.04566966680425218</v>
       </c>
     </row>
     <row r="21">
@@ -6732,19 +6732,19 @@
         <v>3478</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1293</v>
+        <v>1261</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7550</v>
+        <v>7482</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.004879885917080385</v>
+        <v>0.004879885917080384</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001813793374356508</v>
+        <v>0.001769199520155896</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01059182594752022</v>
+        <v>0.01049605555121149</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -6753,19 +6753,19 @@
         <v>10692</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6271</v>
+        <v>6437</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16545</v>
+        <v>16931</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01188992941800674</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006973762467229722</v>
+        <v>0.007157798302752756</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01839757736835787</v>
+        <v>0.01882699827852213</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -6774,19 +6774,19 @@
         <v>14171</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9614</v>
+        <v>9033</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21265</v>
+        <v>20898</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008790357163480417</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005963792020680992</v>
+        <v>0.005603613204196474</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0131907646543596</v>
+        <v>0.01296308772497608</v>
       </c>
     </row>
     <row r="22">
@@ -6803,19 +6803,19 @@
         <v>691926</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>683222</v>
+        <v>683564</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>698559</v>
+        <v>698762</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9707147617913058</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9585034293861671</v>
+        <v>0.9589832702436144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9800195097942154</v>
+        <v>0.9803043049496887</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1564</v>
@@ -6824,19 +6824,19 @@
         <v>823153</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>808723</v>
+        <v>808762</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>835547</v>
+        <v>835494</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9153448848613649</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8992982194393291</v>
+        <v>0.8993416757337123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9291262748653738</v>
+        <v>0.9290675288110311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2555</v>
@@ -6845,19 +6845,19 @@
         <v>1515080</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1498744</v>
+        <v>1500186</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1529188</v>
+        <v>1530722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9398273198485233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9296939477514128</v>
+        <v>0.9305883718085193</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9485787846642859</v>
+        <v>0.949530275833568</v>
       </c>
     </row>
     <row r="23">
